--- a/data.xlsx
+++ b/data.xlsx
@@ -500,8 +500,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
